--- a/NOAA/BuddInlet/Data/Phyto-Enviro Data.xlsx
+++ b/NOAA/BuddInlet/Data/Phyto-Enviro Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afischer/MATLAB/NOAA/BuddInlet/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/afischer/MATLAB/bloom-baby-bloom/NOAA/BuddInlet/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEFC451B-D63A-C940-9CBE-71011BCCE728}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68E35E0D-DB48-B445-B91A-3479BD0AFB06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="40140" windowHeight="22540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="114">
   <si>
     <t>Sample Date</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>Skeletonema, Tintinnids, penaate diatom, Thalssiosira, Dinophysis, Detonula, Thalassionema, Pseudo-nitzschia large (p/m type), Asteromphalus, Ditylum, Leptocylindros, Pluerosigma, Coscinodiscus, Hemiaulus, Noctiluca, C. fusus, A. sanguinea, Ciliate, N. acicularis, zooplankton</t>
+  </si>
+  <si>
+    <t>very little phyto biomass, water brown from detritus/mixed up sediment</t>
+  </si>
+  <si>
+    <t>pennate diatoms, Cylindrotheca, Pluerosigma, Asteromphalus, Thalassiosira, Chaetoceros, C. fusu, Dinophysis, A. snaguinea, Detonula, Thalassionema, Actinoptychus, Leptocylindros, Noctiluca, Coscinodiscus, Tiarrina, Tintinnids, Ditylum</t>
   </si>
 </sst>
 </file>
@@ -377,23 +383,28 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -401,7 +412,7 @@
       <name val="Roboto"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -420,6 +431,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -433,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -462,6 +479,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -681,7 +701,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1614,7 +1634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>44426</v>
       </c>
@@ -1678,7 +1698,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>44432</v>
       </c>
@@ -1744,7 +1764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>44439</v>
       </c>
@@ -1810,7 +1830,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>44447</v>
       </c>
@@ -1876,7 +1896,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>44455</v>
       </c>
@@ -1942,7 +1962,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>44456</v>
       </c>
@@ -2004,7 +2024,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>44461</v>
       </c>
@@ -2076,7 +2096,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>44469</v>
       </c>
@@ -2142,7 +2162,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>44477</v>
       </c>
@@ -2206,7 +2226,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>44488</v>
       </c>
@@ -2274,7 +2294,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>44504</v>
       </c>
@@ -2340,18 +2360,85 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E28" s="18"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="14"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="10"/>
-      <c r="R28" s="10"/>
-      <c r="S28" s="10"/>
-      <c r="T28" s="12"/>
-    </row>
-    <row r="29" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5">
+        <v>44516</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.46875</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="7">
+        <v>6</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H28" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I28" s="7">
+        <v>1.5</v>
+      </c>
+      <c r="J28" s="7">
+        <v>150</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1000</v>
+      </c>
+      <c r="L28" s="7">
+        <v>10</v>
+      </c>
+      <c r="M28" s="7">
+        <v>3</v>
+      </c>
+      <c r="N28" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="O28" s="21">
+        <v>33</v>
+      </c>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="21">
+        <v>67</v>
+      </c>
+      <c r="U28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
+      <c r="AB28" s="20"/>
+      <c r="AC28" s="20"/>
+      <c r="AD28" s="20"/>
+      <c r="AE28" s="20"/>
+      <c r="AF28" s="20"/>
+      <c r="AG28" s="20"/>
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+      <c r="AJ28" s="20"/>
+    </row>
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E29" s="18"/>
       <c r="J29" s="9"/>
       <c r="K29" s="14"/>
@@ -2362,7 +2449,7 @@
       <c r="S29" s="10"/>
       <c r="T29" s="10"/>
     </row>
-    <row r="30" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E30" s="18"/>
       <c r="J30" s="9"/>
       <c r="K30" s="14"/>
@@ -2373,7 +2460,7 @@
       <c r="S30" s="10"/>
       <c r="T30" s="10"/>
     </row>
-    <row r="31" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E31" s="18"/>
       <c r="J31" s="9"/>
       <c r="K31" s="14"/>
@@ -2384,7 +2471,7 @@
       <c r="S31" s="10"/>
       <c r="T31" s="10"/>
     </row>
-    <row r="32" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E32" s="18"/>
       <c r="J32" s="9"/>
       <c r="K32" s="14"/>
